--- a/src/assets/specimen_teleostei_post-hatching.xlsx
+++ b/src/assets/specimen_teleostei_post-hatching.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0223F78B-72FC-2245-A03E-08A61758A5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5135C-D202-EC4C-8887-3223DE782A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="2300" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{3A2BEFF5-EABF-6D4B-8C22-AA7C02D03069}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{3A2BEFF5-EABF-6D4B-8C22-AA7C02D03069}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>Time Post Fertilisation</t>
   </si>
   <si>
-    <t>Water Rearing Conditions</t>
-  </si>
-  <si>
     <t>Post-hatching Animal Density</t>
   </si>
   <si>
@@ -213,16 +210,19 @@
     <t>Sampling Weight</t>
   </si>
   <si>
-    <t>Sampling Day Start Time</t>
-  </si>
-  <si>
-    <t>Sampling Day End Time</t>
-  </si>
-  <si>
-    <t>Method Of Schedule 1 Killing</t>
-  </si>
-  <si>
     <t>Anaesthetic Or Sedative Name</t>
+  </si>
+  <si>
+    <t>Water Rearing System</t>
+  </si>
+  <si>
+    <t>Sampling Data Start Time</t>
+  </si>
+  <si>
+    <t>Sampling Data End Time</t>
+  </si>
+  <si>
+    <t>Method Of Euthanasia</t>
   </si>
 </sst>
 </file>
@@ -698,9 +698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED183204-C22A-6047-974A-847A71BAF43F}">
   <dimension ref="A1:BW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -754,7 +752,7 @@
     <col min="48" max="48" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="49" max="49" width="19.83203125" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="20" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="53" max="54" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="14.5" bestFit="1" customWidth="1"/>
@@ -773,9 +771,9 @@
     <col min="69" max="69" width="4.6640625" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -931,79 +929,79 @@
         <v>20</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BG1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BN1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/specimen_teleostei_post-hatching.xlsx
+++ b/src/assets/specimen_teleostei_post-hatching.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C5135C-D202-EC4C-8887-3223DE782A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117BC4D4-86D3-F140-99EF-B24AA6C66BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{3A2BEFF5-EABF-6D4B-8C22-AA7C02D03069}"/>
   </bookViews>
@@ -216,13 +216,13 @@
     <t>Water Rearing System</t>
   </si>
   <si>
-    <t>Sampling Data Start Time</t>
-  </si>
-  <si>
-    <t>Sampling Data End Time</t>
-  </si>
-  <si>
     <t>Method Of Euthanasia</t>
+  </si>
+  <si>
+    <t>Sampling Day Start Time</t>
+  </si>
+  <si>
+    <t>Sampling Day End Time</t>
   </si>
 </sst>
 </file>
@@ -698,7 +698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED183204-C22A-6047-974A-847A71BAF43F}">
   <dimension ref="A1:BW1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BV1" sqref="BV1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -992,13 +994,13 @@
         <v>20</v>
       </c>
       <c r="BT1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="BW1" s="1" t="s">
         <v>57</v>

--- a/src/assets/specimen_teleostei_post-hatching.xlsx
+++ b/src/assets/specimen_teleostei_post-hatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexey/ebi_projects/faang-portal-frontend/src/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117BC4D4-86D3-F140-99EF-B24AA6C66BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2CCDF2-EC2C-D449-9AB7-1A894A069AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="3" xr2:uid="{3A2BEFF5-EABF-6D4B-8C22-AA7C02D03069}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16220" activeTab="3" xr2:uid="{3A2BEFF5-EABF-6D4B-8C22-AA7C02D03069}"/>
   </bookViews>
   <sheets>
     <sheet name="submission" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>Submission Title</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Sampling Day End Time</t>
+  </si>
+  <si>
+    <t>Geographic Location</t>
   </si>
 </sst>
 </file>
@@ -696,10 +699,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED183204-C22A-6047-974A-847A71BAF43F}">
-  <dimension ref="A1:BW1"/>
+  <dimension ref="A1:BX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BV1" sqref="BV1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,72 +717,73 @@
     <col min="8" max="8" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.83203125" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="20" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="37.33203125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="21" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:76" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -811,198 +815,201 @@
         <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Y1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AC1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AF1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AH1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AL1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AR1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="AY1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BB1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BE1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BG1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BI1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BJ1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BK1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BL1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BM1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BN1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BO1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BP1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BR1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BS1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BS1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="BT1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
